--- a/academias/Laboratorio Clínico - Estadisticos 20202.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 20202.xlsx
@@ -1356,25 +1356,25 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>85.37</v>
+        <v>87.8</v>
       </c>
       <c r="H3">
-        <v>14.63</v>
+        <v>12.2</v>
       </c>
       <c r="I3">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2108,19 +2108,19 @@
         <v>41</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>95.12</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H2">
-        <v>4.88</v>
+        <v>7.32</v>
       </c>
       <c r="I2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2143,19 +2143,19 @@
         <v>41</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>95.12</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="H3">
-        <v>4.88</v>
+        <v>7.32</v>
       </c>
       <c r="I3">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2178,19 +2178,19 @@
         <v>36</v>
       </c>
       <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>75</v>
+      </c>
+      <c r="H4">
         <v>25</v>
       </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
-        <v>69.44</v>
-      </c>
-      <c r="H4">
-        <v>30.56</v>
-      </c>
       <c r="I4">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="J4">
         <v>0</v>

--- a/academias/Laboratorio Clínico - Estadisticos 20202.xlsx
+++ b/academias/Laboratorio Clínico - Estadisticos 20202.xlsx
@@ -744,25 +744,25 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>21.88</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1531,25 +1531,25 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>68.75</v>
+        <v>78.13</v>
       </c>
       <c r="H8">
-        <v>31.25</v>
+        <v>21.88</v>
       </c>
       <c r="I8">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>31.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2318,25 +2318,25 @@
         <v>32</v>
       </c>
       <c r="E8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>21.88</v>
       </c>
       <c r="I8">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
